--- a/HeartsServer.GameLogic.Tests/LogFiles/Hearts_history.xlsx
+++ b/HeartsServer.GameLogic.Tests/LogFiles/Hearts_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\source\repos\HeartsCards\HeartsServer.GameLogic.Tests\bin\Debug\net8.0\LogFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\source\repos\HeartsCards\HeartsServer.GameLogic.Tests\LogFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D279D048-69BB-42EF-95D8-1113E81CA6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA1AA8-F70D-4235-B351-00E2F15DA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="5595" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="4815" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round_01" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF44F36-865F-4F2B-AD86-DD63B266981C}">
   <dimension ref="A1:BA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3052,7 +3052,9 @@
     <col min="12" max="13" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
